--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 0 (30, 11, 3, 38, 29)/MDD 5 (0, 30, 46, 17, 23)/ANN_128nodes_Uniform0.05Virtual_Control(30, 11, 3, 38, 29)_MDD(0, 30, 46, 17, 23)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 0 (30, 11, 3, 38, 29)/MDD 5 (0, 30, 46, 17, 23)/ANN_128nodes_Uniform0.05Virtual_Control(30, 11, 3, 38, 29)_MDD(0, 30, 46, 17, 23)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9846783325187848</v>
+        <v>0.9999966894208786</v>
       </c>
       <c r="E2">
-        <v>0.9846783325187848</v>
+        <v>0.9999966894208786</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9999989687879791</v>
+        <v>0.8551576537463798</v>
       </c>
       <c r="E3">
-        <v>0.9999989687879791</v>
+        <v>0.8551576537463798</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>9.75432284507074E-34</v>
+        <v>7.953810386309141E-52</v>
       </c>
       <c r="E4">
-        <v>9.75432284507074E-34</v>
+        <v>7.953810386309141E-52</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9999999999999987</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0.9999999999999987</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.999999846276067</v>
+        <v>0.9999954604946731</v>
       </c>
       <c r="E6">
-        <v>0.999999846276067</v>
+        <v>0.9999954604946731</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.9999999999999936</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>6.439293542825908E-15</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.339819642403916E-26</v>
+        <v>2.539196964916301E-27</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.525621870512968E-09</v>
+        <v>6.091091740398034E-07</v>
       </c>
       <c r="E11">
-        <v>0.9999999924743781</v>
+        <v>0.999999390890826</v>
       </c>
       <c r="F11">
-        <v>133.7447357177734</v>
+        <v>118.2373275756836</v>
       </c>
       <c r="G11">
         <v>0.3</v>
